--- a/group2data/경제/코스피(종합주가지수)/코스피(종합주가지수)_정리/코스피 월간.xlsx
+++ b/group2data/경제/코스피(종합주가지수)/코스피(종합주가지수)_정리/코스피 월간.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\Desktop\3팀(경제)\코스피(종합주가지수)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\Documents\GitHub\Group2\group2data\경제\코스피(종합주가지수)\코스피(종합주가지수)_정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143BB1F5-B44A-44D5-AC29-89826C916F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02734FFE-D30B-4DD1-A031-BED3B82C42F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="696" windowWidth="2388" windowHeight="564" xr2:uid="{1841A7F9-629E-47FE-B656-932F6A304D3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1841A7F9-629E-47FE-B656-932F6A304D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C654D6B2-B175-421F-A2FF-43EDFEA92B61}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,13 +956,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2">
-        <v>2267.25</v>
+        <v>1399.83</v>
       </c>
       <c r="C2" s="3">
-        <v>3.1699999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -970,139 +970,121 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2">
-        <v>2197.67</v>
+        <v>1371.59</v>
       </c>
       <c r="C3" s="3">
-        <v>5.2499999999999998E-2</v>
+        <v>-2.0199999999999999E-2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2">
-        <v>2087.96</v>
+        <v>1359.6</v>
       </c>
       <c r="C4" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>-8.6999999999999994E-3</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2">
-        <v>2083.48</v>
+        <v>1419.73</v>
       </c>
       <c r="C5" s="3">
-        <v>9.8999999999999991E-3</v>
+        <v>4.4199999999999996E-2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2">
-        <v>2063.0500000000002</v>
+        <v>1317.7</v>
       </c>
       <c r="C6" s="3">
-        <v>4.8399999999999999E-2</v>
+        <v>-7.1900000000000006E-2</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2">
-        <v>1967.79</v>
+        <v>1295.1500000000001</v>
       </c>
       <c r="C7" s="3">
-        <v>-2.7999999999999997E-2</v>
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2">
-        <v>2024.55</v>
+        <v>1297.82</v>
       </c>
       <c r="C8" s="3">
-        <v>-4.9800000000000004E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2">
-        <v>2130.62</v>
+        <v>1352.74</v>
       </c>
       <c r="C9" s="3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2300000000000004E-2</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2">
-        <v>2041.74</v>
+        <v>1371.41</v>
       </c>
       <c r="C10" s="3">
-        <v>-7.3399999999999993E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="B11" s="2">
-        <v>2203.59</v>
+        <v>1364.55</v>
       </c>
       <c r="C11" s="3">
-        <v>2.9399999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2">
-        <v>2140.67</v>
+        <v>1432.21</v>
       </c>
       <c r="C12" s="3">
-        <v>-2.4900000000000002E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1110,13 +1092,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2">
-        <v>2195.44</v>
+        <v>1434.46</v>
       </c>
       <c r="C13" s="3">
-        <v>-4.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1124,13 +1106,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2">
-        <v>2204.85</v>
+        <v>2064.85</v>
       </c>
       <c r="C14" s="3">
-        <v>8.0299999999999996E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1138,13 +1120,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2">
-        <v>2041.04</v>
+        <v>1906</v>
       </c>
       <c r="C15" s="3">
-        <v>-2.6600000000000002E-2</v>
+        <v>-7.690000000000001E-2</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1152,13 +1134,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2">
-        <v>2096.86</v>
+        <v>1897.13</v>
       </c>
       <c r="C16" s="3">
-        <v>3.3099999999999997E-2</v>
+        <v>-4.6999999999999993E-3</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1166,13 +1148,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2">
-        <v>2029.69</v>
+        <v>1360.23</v>
       </c>
       <c r="C17" s="3">
-        <v>-0.13369999999999999</v>
+        <v>-5.1699999999999996E-2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1180,13 +1162,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2">
-        <v>2343.0700000000002</v>
+        <v>1417.34</v>
       </c>
       <c r="C18" s="3">
-        <v>8.6999999999999994E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1194,13 +1176,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2">
-        <v>2322.88</v>
+        <v>1452.55</v>
       </c>
       <c r="C19" s="3">
-        <v>1.2E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1208,13 +1190,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2">
-        <v>2295.2600000000002</v>
+        <v>1542.24</v>
       </c>
       <c r="C20" s="3">
-        <v>-1.3300000000000001E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1222,13 +1204,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2">
-        <v>2326.13</v>
+        <v>1700.91</v>
       </c>
       <c r="C21" s="3">
-        <v>-0.04</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1236,13 +1218,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2">
-        <v>2423.0100000000002</v>
+        <v>1743.6</v>
       </c>
       <c r="C22" s="3">
-        <v>-3.6699999999999997E-2</v>
+        <v>2.5099999999999997E-2</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1250,13 +1232,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2">
-        <v>2515.38</v>
+        <v>1933.27</v>
       </c>
       <c r="C23" s="3">
-        <v>2.8399999999999998E-2</v>
+        <v>0.10880000000000001</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1264,13 +1246,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2">
-        <v>2445.85</v>
+        <v>1873.24</v>
       </c>
       <c r="C24" s="3">
-        <v>7.6E-3</v>
+        <v>-3.1099999999999999E-2</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1278,13 +1260,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2">
-        <v>2427.36</v>
+        <v>1946.48</v>
       </c>
       <c r="C25" s="3">
-        <v>-5.4199999999999998E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1292,13 +1274,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2">
-        <v>2566.46</v>
+        <v>1113.06</v>
       </c>
       <c r="C26" s="3">
-        <v>4.0099999999999997E-2</v>
+        <v>-0.23129999999999998</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1306,13 +1288,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2">
-        <v>2467.4899999999998</v>
+        <v>1076.07</v>
       </c>
       <c r="C27" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>-3.32E-2</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1320,13 +1302,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2">
-        <v>2476.37</v>
+        <v>1124.47</v>
       </c>
       <c r="C28" s="3">
-        <v>-1.8600000000000002E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1334,13 +1316,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="B29" s="2">
-        <v>2523.4299999999998</v>
+        <v>1624.68</v>
       </c>
       <c r="C29" s="3">
-        <v>5.3899999999999997E-2</v>
+        <v>-0.14360000000000001</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1348,13 +1330,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="B30" s="2">
-        <v>2394.4699999999998</v>
+        <v>1711.62</v>
       </c>
       <c r="C30" s="3">
-        <v>1.32E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1362,13 +1344,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2">
-        <v>2363.19</v>
+        <v>1703.99</v>
       </c>
       <c r="C31" s="3">
-        <v>-1.6399999999999998E-2</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1376,13 +1358,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B32" s="2">
-        <v>2402.71</v>
+        <v>1825.47</v>
       </c>
       <c r="C32" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1390,13 +1372,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2">
-        <v>2391.79</v>
+        <v>1852.02</v>
       </c>
       <c r="C33" s="3">
-        <v>1.89E-2</v>
+        <v>1.4499999999999999E-2</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1404,13 +1386,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2">
-        <v>2347.38</v>
+        <v>1674.92</v>
       </c>
       <c r="C34" s="3">
-        <v>6.4399999999999999E-2</v>
+        <v>-9.5600000000000004E-2</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1418,13 +1400,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B35" s="2">
-        <v>2205.44</v>
+        <v>1594.67</v>
       </c>
       <c r="C35" s="3">
-        <v>2.0899999999999998E-2</v>
+        <v>-4.7899999999999998E-2</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1432,13 +1414,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2">
-        <v>2160.23</v>
+        <v>1474.24</v>
       </c>
       <c r="C36" s="3">
-        <v>3.2799999999999996E-2</v>
+        <v>-7.5499999999999998E-2</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1446,13 +1428,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2">
-        <v>2091.64</v>
+        <v>1448.06</v>
       </c>
       <c r="C37" s="3">
-        <v>1.1599999999999999E-2</v>
+        <v>-1.78E-2</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1460,13 +1442,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2">
-        <v>2067.5700000000002</v>
+        <v>1580.69</v>
       </c>
       <c r="C38" s="3">
-        <v>2.0299999999999999E-2</v>
+        <v>-5.5300000000000002E-2</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1474,13 +1456,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B39" s="2">
-        <v>2026.46</v>
+        <v>1555.6</v>
       </c>
       <c r="C39" s="3">
-        <v>2.1700000000000001E-2</v>
+        <v>-1.5900000000000001E-2</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1488,13 +1470,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B40" s="2">
-        <v>1983.48</v>
+        <v>1682.77</v>
       </c>
       <c r="C40" s="3">
-        <v>-1.23E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1502,13 +1484,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2">
-        <v>2008.19</v>
+        <v>1162.1099999999999</v>
       </c>
       <c r="C41" s="3">
-        <v>-1.7299999999999999E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1516,13 +1498,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2">
-        <v>2043.63</v>
+        <v>1063.03</v>
       </c>
       <c r="C42" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>-8.5299999999999987E-2</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1530,13 +1512,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B43" s="2">
-        <v>2034.65</v>
+        <v>1206.26</v>
       </c>
       <c r="C43" s="3">
-        <v>9.1999999999999998E-3</v>
+        <v>0.13470000000000001</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1544,13 +1526,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2">
-        <v>2016.19</v>
+        <v>1369.36</v>
       </c>
       <c r="C44" s="3">
-        <v>2.3300000000000001E-2</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1558,13 +1540,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2">
-        <v>1970.35</v>
+        <v>1395.89</v>
       </c>
       <c r="C45" s="3">
-        <v>-6.6E-3</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1572,13 +1554,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B46" s="2">
-        <v>1983.4</v>
+        <v>1390.07</v>
       </c>
       <c r="C46" s="3">
-        <v>-5.4000000000000003E-3</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1586,13 +1568,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B47" s="2">
-        <v>1994.15</v>
+        <v>1557.29</v>
       </c>
       <c r="C47" s="3">
-        <v>-8.9999999999999998E-4</v>
+        <v>0.12029999999999999</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1600,13 +1582,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2">
-        <v>1995.85</v>
+        <v>1591.85</v>
       </c>
       <c r="C48" s="3">
-        <v>4.1299999999999996E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1614,13 +1596,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="B49" s="2">
-        <v>1916.66</v>
+        <v>1673.14</v>
       </c>
       <c r="C49" s="3">
-        <v>2.3999999999999998E-3</v>
+        <v>5.1100000000000007E-2</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1628,13 +1610,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2">
-        <v>1912.06</v>
+        <v>1882.95</v>
       </c>
       <c r="C50" s="3">
-        <v>-2.5099999999999997E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1642,13 +1624,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2">
-        <v>1961.31</v>
+        <v>1904.63</v>
       </c>
       <c r="C51" s="3">
-        <v>-1.54E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1656,13 +1638,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2">
-        <v>1991.97</v>
+        <v>2051</v>
       </c>
       <c r="C52" s="3">
-        <v>-1.8500000000000003E-2</v>
+        <v>7.6799999999999993E-2</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1670,13 +1652,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2">
-        <v>2029.47</v>
+        <v>1602.43</v>
       </c>
       <c r="C53" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>-4.7699999999999992E-2</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1684,13 +1666,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2">
-        <v>1962.81</v>
+        <v>1594.58</v>
       </c>
       <c r="C54" s="3">
-        <v>1.1000000000000001E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1698,13 +1680,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2">
-        <v>1941.49</v>
+        <v>1692.85</v>
       </c>
       <c r="C55" s="3">
-        <v>-4.3700000000000003E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1712,13 +1694,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>2030.16</v>
+        <v>1741.56</v>
       </c>
       <c r="C56" s="3">
-        <v>-2.12E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1726,13 +1708,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2">
-        <v>2074.1999999999998</v>
+        <v>1641.25</v>
       </c>
       <c r="C57" s="3">
-        <v>-1.9199999999999998E-2</v>
+        <v>-5.7599999999999998E-2</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1740,13 +1722,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2">
-        <v>2114.8000000000002</v>
+        <v>1698.29</v>
       </c>
       <c r="C58" s="3">
-        <v>-5.7999999999999996E-3</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1754,13 +1736,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2">
-        <v>2127.17</v>
+        <v>1759.33</v>
       </c>
       <c r="C59" s="3">
-        <v>4.2199999999999994E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1768,13 +1750,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2">
-        <v>2041.03</v>
+        <v>1742.75</v>
       </c>
       <c r="C60" s="3">
-        <v>2.7799999999999998E-2</v>
+        <v>-9.3999999999999986E-3</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1782,13 +1764,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2">
-        <v>1985.8</v>
+        <v>1872.81</v>
       </c>
       <c r="C61" s="3">
-        <v>1.8700000000000001E-2</v>
+        <v>7.46E-2</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1796,13 +1778,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2">
-        <v>1949.26</v>
+        <v>1909.03</v>
       </c>
       <c r="C62" s="3">
-        <v>1.7600000000000001E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1810,13 +1792,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2">
-        <v>1915.59</v>
+        <v>1847.51</v>
       </c>
       <c r="C63" s="3">
-        <v>-3.2899999999999999E-2</v>
+        <v>-3.2199999999999999E-2</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1824,13 +1806,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2">
-        <v>1980.78</v>
+        <v>1825.74</v>
       </c>
       <c r="C64" s="3">
-        <v>8.3000000000000001E-3</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1838,13 +1820,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2">
-        <v>1964.43</v>
+        <v>2069.73</v>
       </c>
       <c r="C65" s="3">
-        <v>-2.76E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1852,13 +1834,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2">
-        <v>2020.09</v>
+        <v>1939.3</v>
       </c>
       <c r="C66" s="3">
-        <v>-2.3399999999999997E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -1866,13 +1848,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2">
-        <v>2068.54</v>
+        <v>2106.6999999999998</v>
       </c>
       <c r="C67" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1880,13 +1862,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2">
-        <v>2076.12</v>
+        <v>2192.36</v>
       </c>
       <c r="C68" s="3">
-        <v>3.6900000000000002E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1894,13 +1876,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2">
-        <v>2002.21</v>
+        <v>2142.4699999999998</v>
       </c>
       <c r="C69" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>-2.2799999999999997E-2</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -1908,13 +1890,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2">
-        <v>1994.96</v>
+        <v>2100.69</v>
       </c>
       <c r="C70" s="3">
-        <v>1.6899999999999998E-2</v>
+        <v>-1.95E-2</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -1922,13 +1904,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2">
-        <v>1961.79</v>
+        <v>2133.21</v>
       </c>
       <c r="C71" s="3">
-        <v>-1.2E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -1936,13 +1918,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2">
-        <v>1985.61</v>
+        <v>1880.11</v>
       </c>
       <c r="C72" s="3">
-        <v>2.8000000000000004E-3</v>
+        <v>-0.1186</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -1950,13 +1932,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2">
-        <v>1979.99</v>
+        <v>1769.65</v>
       </c>
       <c r="C73" s="3">
-        <v>0.02</v>
+        <v>-5.8799999999999998E-2</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -1964,13 +1946,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2">
-        <v>1941.15</v>
+        <v>1912.06</v>
       </c>
       <c r="C74" s="3">
-        <v>-3.49E-2</v>
+        <v>-4.2199999999999994E-2</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -1978,13 +1960,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2">
-        <v>2011.34</v>
+        <v>1932.9</v>
       </c>
       <c r="C75" s="3">
-        <v>-1.6399999999999998E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -1992,13 +1974,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2">
-        <v>2044.87</v>
+        <v>1997.05</v>
       </c>
       <c r="C76" s="3">
-        <v>7.3000000000000001E-3</v>
+        <v>3.32E-2</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2006,13 +1988,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2">
-        <v>2030.09</v>
+        <v>1955.79</v>
       </c>
       <c r="C77" s="3">
-        <v>1.66E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2020,13 +2002,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2">
-        <v>1996.96</v>
+        <v>2030.25</v>
       </c>
       <c r="C78" s="3">
-        <v>3.6600000000000001E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2034,13 +2016,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2">
-        <v>1926.36</v>
+        <v>2014.04</v>
       </c>
       <c r="C79" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2048,13 +2030,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2">
-        <v>1914.03</v>
+        <v>1981.99</v>
       </c>
       <c r="C80" s="3">
-        <v>2.7200000000000002E-2</v>
+        <v>-1.5900000000000001E-2</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2062,13 +2044,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2">
-        <v>1863.32</v>
+        <v>1843.47</v>
       </c>
       <c r="C81" s="3">
-        <v>-6.88E-2</v>
+        <v>-6.9900000000000004E-2</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2076,13 +2058,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B82" s="2">
-        <v>2001.05</v>
+        <v>1854.01</v>
       </c>
       <c r="C82" s="3">
-        <v>1.89E-2</v>
+        <v>5.6999999999999993E-3</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2090,13 +2072,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="B83" s="2">
-        <v>1963.95</v>
+        <v>1881.99</v>
       </c>
       <c r="C83" s="3">
-        <v>-2.0400000000000001E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2104,13 +2086,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B84" s="2">
-        <v>2004.89</v>
+        <v>1905.12</v>
       </c>
       <c r="C84" s="3">
-        <v>-1.0700000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2118,13 +2100,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B85" s="2">
-        <v>2026.49</v>
+        <v>1996.21</v>
       </c>
       <c r="C85" s="3">
-        <v>3.2899999999999999E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2132,13 +2114,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>1961.94</v>
+        <v>2030.09</v>
       </c>
       <c r="C86" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2146,13 +2128,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
-        <v>1997.05</v>
+        <v>2044.87</v>
       </c>
       <c r="C87" s="3">
-        <v>3.32E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2160,13 +2142,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2">
-        <v>1932.9</v>
+        <v>2011.34</v>
       </c>
       <c r="C88" s="3">
-        <v>1.09E-2</v>
+        <v>-1.6399999999999998E-2</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2174,13 +2156,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>1912.06</v>
+        <v>1961.94</v>
       </c>
       <c r="C89" s="3">
-        <v>-4.2199999999999994E-2</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2188,13 +2170,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2">
-        <v>1996.21</v>
+        <v>2026.49</v>
       </c>
       <c r="C90" s="3">
-        <v>4.7800000000000002E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2202,13 +2184,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>1905.12</v>
+        <v>2004.89</v>
       </c>
       <c r="C91" s="3">
-        <v>1.23E-2</v>
+        <v>-1.0700000000000001E-2</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2216,13 +2198,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>1881.99</v>
+        <v>1963.95</v>
       </c>
       <c r="C92" s="3">
-        <v>1.5100000000000001E-2</v>
+        <v>-2.0400000000000001E-2</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2230,13 +2212,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>1854.01</v>
+        <v>2001.05</v>
       </c>
       <c r="C93" s="3">
-        <v>5.6999999999999993E-3</v>
+        <v>1.89E-2</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2244,13 +2226,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2">
-        <v>1843.47</v>
+        <v>1863.32</v>
       </c>
       <c r="C94" s="3">
-        <v>-6.9900000000000004E-2</v>
+        <v>-6.88E-2</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2258,13 +2240,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B95" s="2">
-        <v>1981.99</v>
+        <v>1914.03</v>
       </c>
       <c r="C95" s="3">
-        <v>-1.5900000000000001E-2</v>
+        <v>2.7200000000000002E-2</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2272,13 +2254,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2">
-        <v>2014.04</v>
+        <v>1926.36</v>
       </c>
       <c r="C96" s="3">
-        <v>-8.0000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2286,13 +2268,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B97" s="2">
-        <v>2030.25</v>
+        <v>1996.96</v>
       </c>
       <c r="C97" s="3">
-        <v>3.8100000000000002E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2300,13 +2282,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B98" s="2">
-        <v>1955.79</v>
+        <v>1964.43</v>
       </c>
       <c r="C98" s="3">
-        <v>7.1199999999999999E-2</v>
+        <v>-2.76E-2</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2314,13 +2296,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B99" s="2">
-        <v>1825.74</v>
+        <v>1980.78</v>
       </c>
       <c r="C99" s="3">
-        <v>-1.18E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2328,13 +2310,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B100" s="2">
-        <v>1847.51</v>
+        <v>1915.59</v>
       </c>
       <c r="C100" s="3">
-        <v>-3.2199999999999999E-2</v>
+        <v>-3.2899999999999999E-2</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2342,13 +2324,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B101" s="2">
-        <v>1909.03</v>
+        <v>1941.15</v>
       </c>
       <c r="C101" s="3">
-        <v>7.8799999999999995E-2</v>
+        <v>-3.49E-2</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2356,13 +2338,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B102" s="2">
-        <v>1769.65</v>
+        <v>1979.99</v>
       </c>
       <c r="C102" s="3">
-        <v>-5.8799999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2370,13 +2352,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B103" s="2">
-        <v>1880.11</v>
+        <v>1985.61</v>
       </c>
       <c r="C103" s="3">
-        <v>-0.1186</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2384,13 +2366,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2">
-        <v>2133.21</v>
+        <v>1961.79</v>
       </c>
       <c r="C104" s="3">
-        <v>1.55E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2398,13 +2380,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B105" s="2">
-        <v>2100.69</v>
+        <v>1994.96</v>
       </c>
       <c r="C105" s="3">
-        <v>-1.95E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2412,13 +2394,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B106" s="2">
-        <v>2142.4699999999998</v>
+        <v>2002.21</v>
       </c>
       <c r="C106" s="3">
-        <v>-2.2799999999999997E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2426,13 +2408,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B107" s="2">
-        <v>2192.36</v>
+        <v>2076.12</v>
       </c>
       <c r="C107" s="3">
-        <v>4.07E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2440,13 +2422,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B108" s="2">
-        <v>2106.6999999999998</v>
+        <v>2068.54</v>
       </c>
       <c r="C108" s="3">
-        <v>8.6300000000000002E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2454,13 +2436,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B109" s="2">
-        <v>1939.3</v>
+        <v>2020.09</v>
       </c>
       <c r="C109" s="3">
-        <v>-6.3E-2</v>
+        <v>-2.3399999999999997E-2</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2468,13 +2450,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B110" s="2">
-        <v>2069.73</v>
+        <v>2029.47</v>
       </c>
       <c r="C110" s="3">
-        <v>9.1000000000000004E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -2482,13 +2464,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B111" s="2">
-        <v>2051</v>
+        <v>1991.97</v>
       </c>
       <c r="C111" s="3">
-        <v>7.6799999999999993E-2</v>
+        <v>-1.8500000000000003E-2</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -2496,13 +2478,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B112" s="2">
-        <v>1904.63</v>
+        <v>1961.31</v>
       </c>
       <c r="C112" s="3">
-        <v>1.15E-2</v>
+        <v>-1.54E-2</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -2510,13 +2492,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B113" s="2">
-        <v>1882.95</v>
+        <v>1949.26</v>
       </c>
       <c r="C113" s="3">
-        <v>5.4000000000000003E-3</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -2524,13 +2506,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B114" s="2">
-        <v>1872.81</v>
+        <v>1985.8</v>
       </c>
       <c r="C114" s="3">
-        <v>7.46E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -2538,13 +2520,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B115" s="2">
-        <v>1742.75</v>
+        <v>2041.03</v>
       </c>
       <c r="C115" s="3">
-        <v>-9.3999999999999986E-3</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -2552,13 +2534,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B116" s="2">
-        <v>1759.33</v>
+        <v>2127.17</v>
       </c>
       <c r="C116" s="3">
-        <v>3.5900000000000001E-2</v>
+        <v>4.2199999999999994E-2</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -2566,13 +2548,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B117" s="2">
-        <v>1698.29</v>
+        <v>2114.8000000000002</v>
       </c>
       <c r="C117" s="3">
-        <v>3.4799999999999998E-2</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -2580,13 +2562,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B118" s="2">
-        <v>1641.25</v>
+        <v>2074.1999999999998</v>
       </c>
       <c r="C118" s="3">
-        <v>-5.7599999999999998E-2</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -2594,13 +2576,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B119" s="2">
-        <v>1741.56</v>
+        <v>2030.16</v>
       </c>
       <c r="C119" s="3">
-        <v>2.8799999999999999E-2</v>
+        <v>-2.12E-2</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -2608,13 +2590,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B120" s="2">
-        <v>1692.85</v>
+        <v>1941.49</v>
       </c>
       <c r="C120" s="3">
-        <v>6.1600000000000002E-2</v>
+        <v>-4.3700000000000003E-2</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -2622,13 +2604,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B121" s="2">
-        <v>1594.58</v>
+        <v>1962.81</v>
       </c>
       <c r="C121" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -2636,13 +2618,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B122" s="2">
-        <v>1602.43</v>
+        <v>2008.19</v>
       </c>
       <c r="C122" s="3">
-        <v>-4.7699999999999992E-2</v>
+        <v>-1.7299999999999999E-2</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -2650,13 +2632,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B123" s="2">
-        <v>1682.77</v>
+        <v>1983.48</v>
       </c>
       <c r="C123" s="3">
-        <v>8.1699999999999995E-2</v>
+        <v>-1.23E-2</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -2664,13 +2646,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="B124" s="2">
-        <v>1555.6</v>
+        <v>2026.46</v>
       </c>
       <c r="C124" s="3">
-        <v>-1.5900000000000001E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -2678,13 +2660,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="B125" s="2">
-        <v>1580.69</v>
+        <v>1912.06</v>
       </c>
       <c r="C125" s="3">
-        <v>-5.5300000000000002E-2</v>
+        <v>-2.5099999999999997E-2</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -2692,13 +2674,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B126" s="2">
-        <v>1673.14</v>
+        <v>1916.66</v>
       </c>
       <c r="C126" s="3">
-        <v>5.1100000000000007E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -2706,13 +2688,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B127" s="2">
-        <v>1591.85</v>
+        <v>1995.85</v>
       </c>
       <c r="C127" s="3">
-        <v>2.2200000000000001E-2</v>
+        <v>4.1299999999999996E-2</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -2720,13 +2702,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B128" s="2">
-        <v>1557.29</v>
+        <v>1994.15</v>
       </c>
       <c r="C128" s="3">
-        <v>0.12029999999999999</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -2734,13 +2716,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B129" s="2">
-        <v>1390.07</v>
+        <v>1983.4</v>
       </c>
       <c r="C129" s="3">
-        <v>-4.1999999999999997E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -2748,13 +2730,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="B130" s="2">
-        <v>1395.89</v>
+        <v>1970.35</v>
       </c>
       <c r="C130" s="3">
-        <v>1.9400000000000001E-2</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -2762,13 +2744,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="B131" s="2">
-        <v>1369.36</v>
+        <v>2016.19</v>
       </c>
       <c r="C131" s="3">
-        <v>0.13519999999999999</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -2776,13 +2758,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B132" s="2">
-        <v>1206.26</v>
+        <v>2034.65</v>
       </c>
       <c r="C132" s="3">
-        <v>0.13470000000000001</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="1"/>
@@ -2790,13 +2772,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="B133" s="2">
-        <v>1063.03</v>
+        <v>2043.63</v>
       </c>
       <c r="C133" s="3">
-        <v>-8.5299999999999987E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -2804,13 +2786,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B134" s="2">
-        <v>1162.1099999999999</v>
+        <v>2523.4299999999998</v>
       </c>
       <c r="C134" s="3">
-        <v>3.3500000000000002E-2</v>
+        <v>5.3899999999999997E-2</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -2818,13 +2800,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B135" s="2">
-        <v>1124.47</v>
+        <v>2476.37</v>
       </c>
       <c r="C135" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>-1.8600000000000002E-2</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
@@ -2832,13 +2814,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B136" s="2">
-        <v>1076.07</v>
+        <v>2467.4899999999998</v>
       </c>
       <c r="C136" s="3">
-        <v>-3.32E-2</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="1"/>
@@ -2846,13 +2828,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B137" s="2">
-        <v>1113.06</v>
+        <v>2067.5700000000002</v>
       </c>
       <c r="C137" s="3">
-        <v>-0.23129999999999998</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="1"/>
@@ -2860,13 +2842,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B138" s="2">
-        <v>1448.06</v>
+        <v>2091.64</v>
       </c>
       <c r="C138" s="3">
-        <v>-1.78E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -2874,13 +2856,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="B139" s="2">
-        <v>1474.24</v>
+        <v>2160.23</v>
       </c>
       <c r="C139" s="3">
-        <v>-7.5499999999999998E-2</v>
+        <v>3.2799999999999996E-2</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -2888,13 +2870,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="B140" s="2">
-        <v>1594.67</v>
+        <v>2205.44</v>
       </c>
       <c r="C140" s="3">
-        <v>-4.7899999999999998E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -2902,13 +2884,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B141" s="2">
-        <v>1674.92</v>
+        <v>2347.38</v>
       </c>
       <c r="C141" s="3">
-        <v>-9.5600000000000004E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -2916,13 +2898,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="B142" s="2">
-        <v>1852.02</v>
+        <v>2391.79</v>
       </c>
       <c r="C142" s="3">
-        <v>1.4499999999999999E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -2930,13 +2912,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B143" s="2">
-        <v>1825.47</v>
+        <v>2402.71</v>
       </c>
       <c r="C143" s="3">
-        <v>7.1300000000000002E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -2944,13 +2926,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B144" s="2">
-        <v>1703.99</v>
+        <v>2363.19</v>
       </c>
       <c r="C144" s="3">
-        <v>-4.5000000000000005E-3</v>
+        <v>-1.6399999999999998E-2</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -2958,13 +2940,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="B145" s="2">
-        <v>1711.62</v>
+        <v>2394.4699999999998</v>
       </c>
       <c r="C145" s="3">
-        <v>5.3499999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -2972,13 +2954,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="B146" s="2">
-        <v>1624.68</v>
+        <v>2029.69</v>
       </c>
       <c r="C146" s="3">
-        <v>-0.14360000000000001</v>
+        <v>-0.13369999999999999</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -2986,13 +2968,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="B147" s="2">
-        <v>1897.13</v>
+        <v>2096.86</v>
       </c>
       <c r="C147" s="3">
-        <v>-4.6999999999999993E-3</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3000,13 +2982,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="B148" s="2">
-        <v>1906</v>
+        <v>2041.04</v>
       </c>
       <c r="C148" s="3">
-        <v>-7.690000000000001E-2</v>
+        <v>-2.6600000000000002E-2</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3014,13 +2996,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="B149" s="2">
-        <v>2064.85</v>
+        <v>2566.46</v>
       </c>
       <c r="C149" s="3">
-        <v>6.08E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -3028,13 +3010,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="B150" s="2">
-        <v>1946.48</v>
+        <v>2427.36</v>
       </c>
       <c r="C150" s="3">
-        <v>3.9100000000000003E-2</v>
+        <v>-5.4199999999999998E-2</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3042,13 +3024,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="B151" s="2">
-        <v>1873.24</v>
+        <v>2445.85</v>
       </c>
       <c r="C151" s="3">
-        <v>-3.1099999999999999E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3056,13 +3038,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B152" s="2">
-        <v>1933.27</v>
+        <v>2515.38</v>
       </c>
       <c r="C152" s="3">
-        <v>0.10880000000000001</v>
+        <v>2.8399999999999998E-2</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -3070,13 +3052,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="B153" s="2">
-        <v>1743.6</v>
+        <v>2423.0100000000002</v>
       </c>
       <c r="C153" s="3">
-        <v>2.5099999999999997E-2</v>
+        <v>-3.6699999999999997E-2</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -3084,13 +3066,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="B154" s="2">
-        <v>1700.91</v>
+        <v>2326.13</v>
       </c>
       <c r="C154" s="3">
-        <v>0.10289999999999999</v>
+        <v>-0.04</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -3098,13 +3080,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="B155" s="2">
-        <v>1542.24</v>
+        <v>2295.2600000000002</v>
       </c>
       <c r="C155" s="3">
-        <v>6.1699999999999998E-2</v>
+        <v>-1.3300000000000001E-2</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3112,13 +3094,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="B156" s="2">
-        <v>1452.55</v>
+        <v>2322.88</v>
       </c>
       <c r="C156" s="3">
-        <v>2.4799999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -3126,13 +3108,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="B157" s="2">
-        <v>1417.34</v>
+        <v>2343.0700000000002</v>
       </c>
       <c r="C157" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3140,13 +3122,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="B158" s="2">
-        <v>1360.23</v>
+        <v>2083.48</v>
       </c>
       <c r="C158" s="3">
-        <v>-5.1699999999999996E-2</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -3154,13 +3136,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="B159" s="2">
-        <v>1434.46</v>
+        <v>2087.96</v>
       </c>
       <c r="C159" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -3168,13 +3150,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="B160" s="2">
-        <v>1432.21</v>
+        <v>2197.67</v>
       </c>
       <c r="C160" s="3">
-        <v>4.9599999999999998E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -3182,13 +3164,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B161" s="2">
-        <v>1364.55</v>
+        <v>2204.85</v>
       </c>
       <c r="C161" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3196,13 +3178,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="B162" s="2">
-        <v>1371.41</v>
+        <v>2195.44</v>
       </c>
       <c r="C162" s="3">
-        <v>1.38E-2</v>
+        <v>-4.3E-3</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -3210,13 +3192,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="B163" s="2">
-        <v>1352.74</v>
+        <v>2140.67</v>
       </c>
       <c r="C163" s="3">
-        <v>4.2300000000000004E-2</v>
+        <v>-2.4900000000000002E-2</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -3224,13 +3206,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="B164" s="2">
-        <v>1297.82</v>
+        <v>2203.59</v>
       </c>
       <c r="C164" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3238,13 +3220,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="B165" s="2">
-        <v>1295.1500000000001</v>
+        <v>2041.74</v>
       </c>
       <c r="C165" s="3">
-        <v>-1.7100000000000001E-2</v>
+        <v>-7.3399999999999993E-2</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3252,13 +3234,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="B166" s="2">
-        <v>1317.7</v>
+        <v>2130.62</v>
       </c>
       <c r="C166" s="3">
-        <v>-7.1900000000000006E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3266,13 +3248,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B167" s="2">
-        <v>1419.73</v>
+        <v>2024.55</v>
       </c>
       <c r="C167" s="3">
-        <v>4.4199999999999996E-2</v>
+        <v>-4.9800000000000004E-2</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3280,13 +3262,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="B168" s="2">
-        <v>1359.6</v>
+        <v>1967.79</v>
       </c>
       <c r="C168" s="3">
-        <v>-8.6999999999999994E-3</v>
+        <v>-2.7999999999999997E-2</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3294,13 +3276,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B169" s="2">
-        <v>1371.59</v>
+        <v>2063.0500000000002</v>
       </c>
       <c r="C169" s="3">
-        <v>-2.0199999999999999E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3308,19 +3290,22 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="B170" s="2">
-        <v>1399.83</v>
+        <v>2267.25</v>
       </c>
       <c r="C170" s="3">
-        <v>1.4800000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C170">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
